--- a/public/public/doc/Template_impor_produk.xlsx
+++ b/public/public/doc/Template_impor_produk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4d2707013945688/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{8A16E601-0E99-473D-BC07-6DDB68C0E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2A56E47-9D49-4CDC-82B0-C8F26918EBAE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFBA511-0E06-4A3F-B42E-015250BE6725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2475" windowWidth="29040" windowHeight="16440" xr2:uid="{84AFDA44-0CCE-4C2B-B89E-143DA3838465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{84AFDA44-0CCE-4C2B-B89E-143DA3838465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,95 +25,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Deskripsi</t>
   </si>
   <si>
-    <t>stok</t>
-  </si>
-  <si>
-    <t>lebar</t>
-  </si>
-  <si>
-    <t>panjang</t>
-  </si>
-  <si>
-    <t>tinggi</t>
-  </si>
-  <si>
-    <t>berat</t>
-  </si>
-  <si>
-    <t>bahan</t>
-  </si>
-  <si>
-    <t>warna</t>
-  </si>
-  <si>
-    <t>jenis cetak</t>
-  </si>
-  <si>
-    <t>finishing</t>
-  </si>
-  <si>
-    <t>kertas</t>
-  </si>
-  <si>
-    <t>ketebalan kertas</t>
-  </si>
-  <si>
-    <t>harga satuan</t>
-  </si>
-  <si>
-    <t>Sub katagor</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>testing import produk</t>
-  </si>
-  <si>
-    <t>Bener</t>
-  </si>
-  <si>
-    <t>catatan: Pastikan Sub katagori sudah terdapat dalam sistem, dan penulisan yang sesuai.</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PVC Banner</t>
-  </si>
-  <si>
-    <t>merah</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>glosy</t>
-  </si>
-  <si>
-    <t>test import bener</t>
-  </si>
-  <si>
     <t>Resolusi</t>
   </si>
   <si>
-    <t>75px</t>
-  </si>
-  <si>
     <t>Jenis Tinta</t>
+  </si>
+  <si>
+    <t>Satuan</t>
+  </si>
+  <si>
+    <t>buah</t>
+  </si>
+  <si>
+    <t>Sub Katagori</t>
+  </si>
+  <si>
+    <t>Nama Produk</t>
+  </si>
+  <si>
+    <t>Jumlah Stok</t>
+  </si>
+  <si>
+    <t>Panjang (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebar (mm) </t>
+  </si>
+  <si>
+    <t>Tinggi (mm)</t>
+  </si>
+  <si>
+    <t>Berat (gram)</t>
+  </si>
+  <si>
+    <t>Minimal Pemesanan</t>
+  </si>
+  <si>
+    <t>Bahan</t>
+  </si>
+  <si>
+    <t>Warna</t>
+  </si>
+  <si>
+    <t>Finishing</t>
+  </si>
+  <si>
+    <t>Jenis Cetakan</t>
+  </si>
+  <si>
+    <t>Jenis Kertas</t>
+  </si>
+  <si>
+    <t>Ketebalan Kertas (gsm)</t>
+  </si>
+  <si>
+    <t>Harga Satuan</t>
+  </si>
+  <si>
+    <t>Catatan: Pastikan subkategori sudah ada dalam sistem dan penulisannya sesuai.</t>
+  </si>
+  <si>
+    <t>Kartu Nama Premium</t>
+  </si>
+  <si>
+    <t>Kartu nama berkualitas tinggi, desain elegan.</t>
+  </si>
+  <si>
+    <t>Kartu Nama</t>
+  </si>
+  <si>
+    <t>lembar</t>
+  </si>
+  <si>
+    <t>Kertas Art</t>
+  </si>
+  <si>
+    <t>Putih</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>300 dpi</t>
+  </si>
+  <si>
+    <t>Laminasi Glossy</t>
+  </si>
+  <si>
+    <t>Kertas Art 250 gsm</t>
+  </si>
+  <si>
+    <t>Tinta Pigmen</t>
+  </si>
+  <si>
+    <t>Brosur Lipat 3</t>
+  </si>
+  <si>
+    <t>Brosur promosi 3 lipatan dengan desain menarik.</t>
+  </si>
+  <si>
+    <t>Brosur</t>
+  </si>
+  <si>
+    <t>Kertas HVS</t>
+  </si>
+  <si>
+    <t>Full Color</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Laminasi Doff</t>
+  </si>
+  <si>
+    <t>Kertas HVS 150 gsm</t>
+  </si>
+  <si>
+    <t>Tinta Dye</t>
+  </si>
+  <si>
+    <t>Poster Promosi</t>
+  </si>
+  <si>
+    <t>Poster iklan berukuran besar, cetak berkualitas.</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Kertas Photo</t>
+  </si>
+  <si>
+    <t>Warna-warna Cerah</t>
+  </si>
+  <si>
+    <t>600 dpi</t>
+  </si>
+  <si>
+    <t>Tanpa Finishing</t>
+  </si>
+  <si>
+    <t>Kertas Photo 200 gsm</t>
+  </si>
+  <si>
+    <t>Tinta Eco-Solvent</t>
+  </si>
+  <si>
+    <t>Kalender Dinding</t>
+  </si>
+  <si>
+    <t>Kalender dinding dengan desain custom.</t>
+  </si>
+  <si>
+    <t>Kalender</t>
+  </si>
+  <si>
+    <t>Berwarna</t>
+  </si>
+  <si>
+    <t>Spiral Binding</t>
+  </si>
+  <si>
+    <t>Kertas Art 300 gsm</t>
+  </si>
+  <si>
+    <t>Stiker Vinyl</t>
+  </si>
+  <si>
+    <t>Stiker tahan air, bisa dipasang di luar ruangan.</t>
+  </si>
+  <si>
+    <t>Stiker</t>
+  </si>
+  <si>
+    <t>Vinyl</t>
+  </si>
+  <si>
+    <t>1200 dpi</t>
+  </si>
+  <si>
+    <t>Vinyl 150 gsm</t>
+  </si>
+  <si>
+    <t>Tinta Solvent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,19 +264,335 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -164,26 +606,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F59C6BF-268E-4F92-9CD8-405C33ABBF30}" name="Table1" displayName="Table1" ref="A2:Q3">
-  <autoFilter ref="A2:Q3" xr:uid="{4F59C6BF-268E-4F92-9CD8-405C33ABBF30}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{F1C85E0A-AF2D-4AA5-AFC7-55EAA09A55E2}" name="Nama" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{AB841A05-B1BB-490F-8B45-BA04B205BD07}" name="Deskripsi"/>
-    <tableColumn id="3" xr3:uid="{F097AFF0-E2F9-4CC3-9E2C-58C84A74C92D}" name="Sub katagor"/>
-    <tableColumn id="4" xr3:uid="{1C4D54F5-4411-46EB-AAFB-F874D083A180}" name="stok"/>
-    <tableColumn id="6" xr3:uid="{F6BA9D30-1E19-464E-A175-FA30CAD4A03C}" name="lebar"/>
-    <tableColumn id="7" xr3:uid="{0136720A-F08A-44D8-B35E-379D20E6E34C}" name="panjang"/>
-    <tableColumn id="8" xr3:uid="{7A9B202E-1149-408E-A14F-04DD084E1C9C}" name="tinggi"/>
-    <tableColumn id="9" xr3:uid="{E8DEEAD2-D5D5-45A4-8130-0489ED01BE63}" name="berat"/>
-    <tableColumn id="10" xr3:uid="{991E4FD5-ED7D-4CE5-9AE0-EF0A5EAD8A5C}" name="bahan"/>
-    <tableColumn id="11" xr3:uid="{52A51C0A-DF91-4C91-95ED-51C21048E2BF}" name="warna"/>
-    <tableColumn id="12" xr3:uid="{DF3B4B72-ABE3-4562-96EA-4493B94EFA9C}" name="jenis cetak"/>
-    <tableColumn id="18" xr3:uid="{30C5DDD8-707E-4776-8FAD-EEC4545EC66E}" name="Resolusi"/>
-    <tableColumn id="13" xr3:uid="{702BF3F7-DF34-4B76-98E5-666D9044293D}" name="finishing"/>
-    <tableColumn id="14" xr3:uid="{800DD117-87DD-4DAE-A433-A9E7B191C565}" name="kertas"/>
-    <tableColumn id="15" xr3:uid="{CCBADDA0-7FE7-4638-9AC3-6ED11DB026DC}" name="ketebalan kertas"/>
-    <tableColumn id="19" xr3:uid="{65465594-0E1D-410E-ABD1-2F49CD484557}" name="Jenis Tinta"/>
-    <tableColumn id="16" xr3:uid="{F86BE617-959A-4B12-B9B8-D025E4556F67}" name="harga satuan" totalsRowFunction="count"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F59C6BF-268E-4F92-9CD8-405C33ABBF30}" name="Table1" displayName="Table1" ref="A2:S7" headerRowDxfId="8" dataDxfId="6" totalsRowDxfId="7">
+  <autoFilter ref="A2:S7" xr:uid="{4F59C6BF-268E-4F92-9CD8-405C33ABBF30}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{F1C85E0A-AF2D-4AA5-AFC7-55EAA09A55E2}" name="Nama Produk" totalsRowLabel="Total" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{AB841A05-B1BB-490F-8B45-BA04B205BD07}" name="Deskripsi" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{F097AFF0-E2F9-4CC3-9E2C-58C84A74C92D}" name="Sub Katagori" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{1C4D54F5-4411-46EB-AAFB-F874D083A180}" name="Jumlah Stok" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{205E7FA2-5034-41B8-8CD6-0B627B066A6C}" name="Satuan" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F6BA9D30-1E19-464E-A175-FA30CAD4A03C}" name="Panjang (mm)" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{0136720A-F08A-44D8-B35E-379D20E6E34C}" name="Lebar (mm) " dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{7A9B202E-1149-408E-A14F-04DD084E1C9C}" name="Tinggi (mm)" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{E8DEEAD2-D5D5-45A4-8130-0489ED01BE63}" name="Berat (gram)" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{991E4FD5-ED7D-4CE5-9AE0-EF0A5EAD8A5C}" name="Bahan" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{52A51C0A-DF91-4C91-95ED-51C21048E2BF}" name="Warna" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{DF3B4B72-ABE3-4562-96EA-4493B94EFA9C}" name="Jenis Cetakan" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{30C5DDD8-707E-4776-8FAD-EEC4545EC66E}" name="Resolusi" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{702BF3F7-DF34-4B76-98E5-666D9044293D}" name="Finishing" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{800DD117-87DD-4DAE-A433-A9E7B191C565}" name="Jenis Kertas" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{CCBADDA0-7FE7-4638-9AC3-6ED11DB026DC}" name="Ketebalan Kertas (gsm)" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{65465594-0E1D-410E-ABD1-2F49CD484557}" name="Jenis Tinta" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{4AEF06D4-9942-4361-81C9-80C206CEECD7}" name="Harga Satuan" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{F86BE617-959A-4B12-B9B8-D025E4556F67}" name="Minimal Pemesanan" totalsRowFunction="count" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -486,135 +930,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75716DD-10CE-44AC-8C05-1254C3F8871B}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="20.7109375" customWidth="1"/>
+    <col min="1" max="19" width="20.7109375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>250</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>297</v>
+      </c>
+      <c r="G4" s="2">
+        <v>210</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>150</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="S4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2">
+        <v>420</v>
+      </c>
+      <c r="G5" s="2">
+        <v>594</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>200</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="3">
+        <v>15000</v>
+      </c>
+      <c r="S5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>300</v>
+      </c>
+      <c r="G6" s="2">
+        <v>400</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2">
+        <v>300</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="2">
+        <v>300</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="S6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>150</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>300</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S7" s="2">
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3">
-        <v>200000</v>
-      </c>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
